--- a/biology/Zoologie/Hymenopus/Hymenopus.xlsx
+++ b/biology/Zoologie/Hymenopus/Hymenopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenopus est un genre de mantes de la famille des Hymenopodidae. La représentante la plus connue est la Mante orchidée (Hymenopus coronatus).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces insectes prédateurs font preuve d'un mimétisme particulièrement développé, destiné à tromper d'autres insectes, en imitant l'aspect des fleurs d'orchidées, près desquelles ils se dissimulent en attendant leur proie.
 </t>
@@ -542,9 +556,11 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en 1831 par l'entomologiste français Jean Guillaume Audinet-Serville. Certains auteurs le considèrent comme un taxon monotypique, admettant uniquement Hymenopus coronatus comme espèce monotypique, mais d'autres espèces sont à présent distinguées[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1831 par l'entomologiste français Jean Guillaume Audinet-Serville. Certains auteurs le considèrent comme un taxon monotypique, admettant uniquement Hymenopus coronatus comme espèce monotypique, mais d'autres espèces sont à présent distinguées.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 août 2021)[2] et Mantodea Species File  (18 août 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 août 2021) et Mantodea Species File  (18 août 2021) :
 Hymenopus bicornis Latreille, 1807
 Hymenopus coronatoides Wang, Liu &amp; Yin, 1994
 Hymenopus coronatus (Olivier, 1792)</t>
